--- a/Asset_Test/Assets/Resources/Data/ItemData.xlsx
+++ b/Asset_Test/Assets/Resources/Data/ItemData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ItemData" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="168">
   <si>
     <t xml:space="preserve">ItemData</t>
   </si>
@@ -53,10 +53,10 @@
     <t xml:space="preserve">0000000</t>
   </si>
   <si>
-    <t xml:space="preserve">녹슨한손검</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI/Icon/Weapons/Sword</t>
+    <t xml:space="preserve">녹슨 한손검</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI/Item/Transparent/MeleeWeapon1H/Great_Sword</t>
   </si>
   <si>
     <t xml:space="preserve">UID CODE</t>
@@ -119,7 +119,10 @@
     <t xml:space="preserve">0000004</t>
   </si>
   <si>
-    <t xml:space="preserve">녹슨갑옷</t>
+    <t xml:space="preserve">녹슨 갑옷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI/Item/Transparent/Armor/Militiaman</t>
   </si>
   <si>
     <t xml:space="preserve">상점에서 파는 가격</t>
@@ -197,21 +200,21 @@
     <t xml:space="preserve">UI/Icon/Potion/MpPotion</t>
   </si>
   <si>
+    <t xml:space="preserve">Helmet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">헬멧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">중형 Mp포션</t>
+  </si>
+  <si>
     <t xml:space="preserve">Armor</t>
   </si>
   <si>
-    <t xml:space="preserve">0000012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">중형 Mp포션</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helmet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">헬멧</t>
-  </si>
-  <si>
     <t xml:space="preserve">0000013</t>
   </si>
   <si>
@@ -224,18 +227,27 @@
     <t xml:space="preserve">벨트</t>
   </si>
   <si>
+    <t xml:space="preserve">0000014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">녹슨 목걸이</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI/Item/Transparent/Neckless/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">신발</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gloves</t>
   </si>
   <si>
     <t xml:space="preserve">장갑</t>
   </si>
   <si>
-    <t xml:space="preserve">Boots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">신발</t>
-  </si>
-  <si>
     <t xml:space="preserve">Necklace</t>
   </si>
   <si>
@@ -314,9 +326,6 @@
     <t xml:space="preserve">Require Value Type</t>
   </si>
   <si>
-    <t xml:space="preserve">녹슨 한손검</t>
-  </si>
-  <si>
     <t xml:space="preserve">입력값</t>
   </si>
   <si>
@@ -381,9 +390,6 @@
   </si>
   <si>
     <t xml:space="preserve">힘</t>
-  </si>
-  <si>
-    <t xml:space="preserve">녹슨 갑옷</t>
   </si>
   <si>
     <t xml:space="preserve">9</t>
@@ -706,7 +712,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -776,6 +782,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -856,10 +866,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:O1006"/>
+  <dimension ref="B1:P1006"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O27" activeCellId="0" sqref="O27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="12.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -871,7 +881,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="7.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="7.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="19.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="48.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="13.38"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="3" width="8.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13"/>
@@ -978,7 +988,7 @@
       <c r="G4" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="2"/>
@@ -1014,7 +1024,7 @@
       <c r="G5" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="2"/>
@@ -1050,7 +1060,7 @@
       <c r="G6" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -1069,7 +1079,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" s="1" customFormat="true" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
@@ -1077,7 +1087,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>0</v>
@@ -1088,30 +1098,32 @@
       <c r="G7" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2"/>
       <c r="L7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="true" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>1</v>
@@ -1122,30 +1134,32 @@
       <c r="G8" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="H8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="2"/>
       <c r="L8" s="9" t="s">
         <v>6</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="true" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>2</v>
@@ -1156,30 +1170,32 @@
       <c r="G9" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="H9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="2"/>
       <c r="L9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="true" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>3</v>
@@ -1190,17 +1206,19 @@
       <c r="G10" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="I10" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="true" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>9</v>
@@ -1215,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" s="2"/>
       <c r="L11" s="9" t="s">
@@ -1226,10 +1244,10 @@
     </row>
     <row r="12" s="1" customFormat="true" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>9</v>
@@ -1244,25 +1262,25 @@
         <v>2</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" s="2"/>
       <c r="L12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="true" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>9</v>
@@ -1277,25 +1295,25 @@
         <v>3</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" s="2"/>
       <c r="L13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="true" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>9</v>
@@ -1310,25 +1328,27 @@
         <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I14" s="2"/>
       <c r="L14" s="2" t="n">
         <v>2</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="O14" s="0"/>
+      <c r="P14" s="0"/>
     </row>
     <row r="15" s="1" customFormat="true" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>9</v>
@@ -1343,25 +1363,25 @@
         <v>2</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I15" s="2"/>
       <c r="L15" s="2" t="n">
         <v>3</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="true" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>9</v>
@@ -1376,31 +1396,53 @@
         <v>3</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I16" s="2"/>
       <c r="L16" s="2" t="n">
         <v>4</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="true" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="2"/>
       <c r="L17" s="2" t="n">
         <v>5</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O17" s="0"/>
+      <c r="P17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J18" s="1"/>
@@ -1409,10 +1451,10 @@
         <v>6</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1422,10 +1464,10 @@
         <v>7</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1435,10 +1477,10 @@
         <v>8</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1448,10 +1490,10 @@
         <v>9</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1461,10 +1503,10 @@
         <v>10</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1487,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1500,10 +1542,10 @@
         <v>1</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1513,10 +1555,10 @@
         <v>2</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1526,10 +1568,10 @@
         <v>3</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1539,10 +1581,10 @@
         <v>4</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1565,7 +1607,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5487,15 +5529,15 @@
   </sheetPr>
   <dimension ref="B1:S22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="12.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="12.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="9.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="11.87"/>
@@ -5507,13 +5549,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="13" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="9.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="9.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -5530,26 +5572,26 @@
         <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M2" s="14"/>
       <c r="Q2" s="14" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="R2" s="14"/>
     </row>
@@ -5558,7 +5600,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>7</v>
@@ -5573,25 +5615,25 @@
         <v>1</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O3" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q3" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="Q3" s="15" t="s">
-        <v>98</v>
-      </c>
       <c r="R3" s="15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5602,10 +5644,10 @@
         <v>17</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>1</v>
@@ -5617,22 +5659,22 @@
         <v>0</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="12" t="n">
         <v>0</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5643,10 +5685,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>1</v>
@@ -5658,19 +5700,19 @@
         <v>1</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q5" s="12" t="n">
         <v>1</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5681,34 +5723,34 @@
         <v>26</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L6" s="12" t="n">
         <v>2</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q6" s="12" t="n">
         <v>2</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5716,10 +5758,10 @@
         <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>1</v>
@@ -5734,33 +5776,33 @@
         <v>3</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="12" t="n">
         <v>3</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>1</v>
@@ -5772,10 +5814,10 @@
         <v>4</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q8" s="12" t="n">
         <v>4</v>
@@ -5784,21 +5826,21 @@
         <v>29</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>1</v>
@@ -5810,33 +5852,33 @@
         <v>5</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q9" s="12" t="n">
         <v>5</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>1</v>
@@ -5848,27 +5890,27 @@
         <v>6</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="12" t="n">
         <v>6</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>1</v>
@@ -5886,18 +5928,18 @@
         <v>7</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>1</v>
@@ -5915,18 +5957,18 @@
         <v>8</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>1</v>
@@ -5944,18 +5986,18 @@
         <v>9</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>2</v>
@@ -5973,18 +6015,18 @@
         <v>10</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>2</v>
@@ -6002,18 +6044,18 @@
         <v>11</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>2</v>
@@ -6031,21 +6073,39 @@
         <v>12</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="L17" s="12" t="n">
         <v>13</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6053,10 +6113,10 @@
         <v>14</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6064,10 +6124,10 @@
         <v>15</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6075,10 +6135,10 @@
         <v>16</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6086,10 +6146,10 @@
         <v>17</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6097,10 +6157,10 @@
         <v>18</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Asset_Test/Assets/Resources/Data/ItemData.xlsx
+++ b/Asset_Test/Assets/Resources/Data/ItemData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ItemData" sheetId="1" state="visible" r:id="rId2"/>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">소형 Hp포션</t>
   </si>
   <si>
-    <t xml:space="preserve">UI/Icon/Potion/HpPotion</t>
+    <t xml:space="preserve">UI/Item/Transparent/Potion/Red_Potion</t>
   </si>
   <si>
     <t xml:space="preserve">0000009</t>
@@ -197,7 +197,7 @@
     <t xml:space="preserve">소형 Mp포션</t>
   </si>
   <si>
-    <t xml:space="preserve">UI/Icon/Potion/MpPotion</t>
+    <t xml:space="preserve">UI/Item/Transparent/Potion/Blue_Potion</t>
   </si>
   <si>
     <t xml:space="preserve">Helmet</t>
@@ -712,7 +712,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -782,10 +782,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -868,7 +864,7 @@
   </sheetPr>
   <dimension ref="B1:P1006"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -5529,11 +5525,11 @@
   </sheetPr>
   <dimension ref="B1:S22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="12.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="12.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="9.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.13"/>
@@ -6092,7 +6088,7 @@
       <c r="E17" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="F17" s="18" t="n">
+      <c r="F17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G17" s="2" t="n">

--- a/Asset_Test/Assets/Resources/Data/ItemData.xlsx
+++ b/Asset_Test/Assets/Resources/Data/ItemData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ItemData" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="172">
   <si>
     <t xml:space="preserve">ItemData</t>
   </si>
@@ -173,10 +173,10 @@
     <t xml:space="preserve">중형 Hp포션</t>
   </si>
   <si>
-    <t xml:space="preserve">OneHandWeapon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">한손무기</t>
+    <t xml:space="preserve">NormalTypeWeapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">물리공격무기</t>
   </si>
   <si>
     <t xml:space="preserve">0000010</t>
@@ -185,10 +185,10 @@
     <t xml:space="preserve">대형 Hp포션</t>
   </si>
   <si>
-    <t xml:space="preserve">TwoHandWeapon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">두손무기</t>
+    <t xml:space="preserve">MagicTypeWeapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마법공격무기</t>
   </si>
   <si>
     <t xml:space="preserve">0000011</t>
@@ -368,7 +368,7 @@
     <t xml:space="preserve">레벨</t>
   </si>
   <si>
-    <t xml:space="preserve">7/11/18</t>
+    <t xml:space="preserve">7/11/16</t>
   </si>
   <si>
     <t xml:space="preserve">5/3/5</t>
@@ -455,28 +455,28 @@
     <t xml:space="preserve">최대 Mp</t>
   </si>
   <si>
-    <t xml:space="preserve">Atk +</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공격력 +</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atk %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공격력 %</t>
+    <t xml:space="preserve">NormalAtk +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">물리 공격력 +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NormalAtk %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">물리 공격력 %</t>
   </si>
   <si>
     <t xml:space="preserve">Def +</t>
   </si>
   <si>
-    <t xml:space="preserve">방어력 +</t>
+    <t xml:space="preserve">물리 방어력 +</t>
   </si>
   <si>
     <t xml:space="preserve">Def %</t>
   </si>
   <si>
-    <t xml:space="preserve">방어력 %</t>
+    <t xml:space="preserve">물리 방어력 %</t>
   </si>
   <si>
     <t xml:space="preserve">Str +</t>
@@ -491,18 +491,6 @@
     <t xml:space="preserve">힘 %</t>
   </si>
   <si>
-    <t xml:space="preserve">Dex +</t>
-  </si>
-  <si>
-    <t xml:space="preserve">민첩 +</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dex %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">민첩 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Int +</t>
   </si>
   <si>
@@ -525,6 +513,30 @@
   </si>
   <si>
     <t xml:space="preserve">생명력 흡혈 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MagicAtk +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마법 공격력 +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MagicAtk %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마법 공격력 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MagicDef +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마법 방어력 +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MagicDef %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마법 방어력 %</t>
   </si>
 </sst>
 </file>
@@ -864,8 +876,8 @@
   </sheetPr>
   <dimension ref="B1:P1006"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N14" activeCellId="0" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="12.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -882,7 +894,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="3" width="8.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="7.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="16.62"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="1" width="8.62"/>
   </cols>
@@ -5523,13 +5535,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:S22"/>
+  <dimension ref="B1:S24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="12.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.40625" defaultRowHeight="12.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="9.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.13"/>
@@ -5540,7 +5552,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="4.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="13" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="6"/>
@@ -6157,6 +6169,28 @@
       </c>
       <c r="N22" s="12" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L23" s="12" t="n">
+        <v>19</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L24" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/Asset_Test/Assets/Resources/Data/ItemData.xlsx
+++ b/Asset_Test/Assets/Resources/Data/ItemData.xlsx
@@ -374,10 +374,10 @@
     <t xml:space="preserve">5/3/5</t>
   </si>
   <si>
-    <t xml:space="preserve">1/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4/10</t>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">curMp</t>
@@ -5538,10 +5538,10 @@
   <dimension ref="B1:S24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.40625" defaultRowHeight="12.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.390625" defaultRowHeight="12.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="9.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.13"/>

--- a/Asset_Test/Assets/Resources/Data/ItemData.xlsx
+++ b/Asset_Test/Assets/Resources/Data/ItemData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ItemData" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="227">
   <si>
     <t xml:space="preserve">ItemData</t>
   </si>
@@ -242,67 +242,232 @@
     <t xml:space="preserve">신발</t>
   </si>
   <si>
+    <t xml:space="preserve">0000015</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gloves</t>
   </si>
   <si>
     <t xml:space="preserve">장갑</t>
   </si>
   <si>
+    <t xml:space="preserve">0000016</t>
+  </si>
+  <si>
     <t xml:space="preserve">Necklace</t>
   </si>
   <si>
     <t xml:space="preserve">목걸이</t>
   </si>
   <si>
+    <t xml:space="preserve">0000017</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ring</t>
   </si>
   <si>
     <t xml:space="preserve">반지</t>
   </si>
   <si>
+    <t xml:space="preserve">0000018</t>
+  </si>
+  <si>
     <t xml:space="preserve">Used</t>
   </si>
   <si>
     <t xml:space="preserve">소비</t>
   </si>
   <si>
+    <t xml:space="preserve">0000019</t>
+  </si>
+  <si>
     <t xml:space="preserve">Material</t>
   </si>
   <si>
     <t xml:space="preserve">재료</t>
   </si>
   <si>
+    <t xml:space="preserve">0000020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000022</t>
+  </si>
+  <si>
     <t xml:space="preserve">일반</t>
   </si>
   <si>
     <t xml:space="preserve">Common</t>
   </si>
   <si>
+    <t xml:space="preserve">0000023</t>
+  </si>
+  <si>
     <t xml:space="preserve">레어</t>
   </si>
   <si>
     <t xml:space="preserve">Rare</t>
   </si>
   <si>
+    <t xml:space="preserve">0000024</t>
+  </si>
+  <si>
     <t xml:space="preserve">유니크</t>
   </si>
   <si>
     <t xml:space="preserve">Unique</t>
   </si>
   <si>
+    <t xml:space="preserve">0000025</t>
+  </si>
+  <si>
     <t xml:space="preserve">에픽</t>
   </si>
   <si>
     <t xml:space="preserve">Epic</t>
   </si>
   <si>
+    <t xml:space="preserve">0000026</t>
+  </si>
+  <si>
     <t xml:space="preserve">세트</t>
   </si>
   <si>
     <t xml:space="preserve">Set</t>
   </si>
   <si>
+    <t xml:space="preserve">0000027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000031</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000069</t>
   </si>
   <si>
     <t xml:space="preserve">ItemEffectData</t>
@@ -876,8 +1041,8 @@
   </sheetPr>
   <dimension ref="B1:P1006"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N14" activeCellId="0" sqref="N14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="12.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1453,75 +1618,96 @@
       <c r="P17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="2" t="n">
         <v>6</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="2" t="n">
         <v>7</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="2" t="n">
         <v>8</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="2" t="n">
         <v>9</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="2" t="n">
         <v>10</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="9" t="s">
@@ -1531,242 +1717,386 @@
       <c r="N24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="2" t="n">
         <v>2</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="2" t="n">
         <v>3</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="2" t="n">
         <v>4</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B38" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B39" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B41" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B42" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B43" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B44" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B45" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B46" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B48" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B49" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B50" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B51" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B52" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B53" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B54" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B55" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B56" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B57" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B58" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B59" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B60" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B61" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B62" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B63" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B64" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B65" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B66" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B67" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B68" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B69" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B70" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B71" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
     <row r="72" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B72" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
@@ -5537,11 +5867,11 @@
   </sheetPr>
   <dimension ref="B1:S24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.390625" defaultRowHeight="12.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="12.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="9.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.13"/>
@@ -5563,7 +5893,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -5580,26 +5910,26 @@
         <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="M2" s="14"/>
       <c r="Q2" s="14" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="R2" s="14"/>
     </row>
@@ -5623,25 +5953,25 @@
         <v>1</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5652,10 +5982,10 @@
         <v>17</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>1</v>
@@ -5667,22 +5997,22 @@
         <v>0</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="12" t="n">
         <v>0</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5693,10 +6023,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>1</v>
@@ -5708,19 +6038,19 @@
         <v>1</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="12" t="n">
         <v>1</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>114</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5731,34 +6061,34 @@
         <v>26</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="L6" s="12" t="n">
         <v>2</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="Q6" s="12" t="n">
         <v>2</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5769,7 +6099,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>1</v>
@@ -5784,19 +6114,19 @@
         <v>3</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="12" t="n">
         <v>3</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5807,10 +6137,10 @@
         <v>37</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>1</v>
@@ -5822,10 +6152,10 @@
         <v>4</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="12" t="n">
         <v>4</v>
@@ -5834,7 +6164,7 @@
         <v>29</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5845,10 +6175,10 @@
         <v>40</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>1</v>
@@ -5860,19 +6190,19 @@
         <v>5</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="Q9" s="12" t="n">
         <v>5</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5883,10 +6213,10 @@
         <v>44</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>1</v>
@@ -5898,19 +6228,19 @@
         <v>6</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="12" t="n">
         <v>6</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5936,10 +6266,10 @@
         <v>7</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5965,10 +6295,10 @@
         <v>8</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5994,10 +6324,10 @@
         <v>9</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>149</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6023,10 +6353,10 @@
         <v>10</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6052,10 +6382,10 @@
         <v>11</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>152</v>
+        <v>207</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>153</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6081,10 +6411,10 @@
         <v>12</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>154</v>
+        <v>209</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>155</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6110,10 +6440,10 @@
         <v>13</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>157</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6121,10 +6451,10 @@
         <v>14</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>158</v>
+        <v>213</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>159</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6132,10 +6462,10 @@
         <v>15</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>161</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6143,10 +6473,10 @@
         <v>16</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>163</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6154,10 +6484,10 @@
         <v>17</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>164</v>
+        <v>219</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>165</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6165,10 +6495,10 @@
         <v>18</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>166</v>
+        <v>221</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6176,10 +6506,10 @@
         <v>19</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6187,10 +6517,10 @@
         <v>20</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
